--- a/SMO/TemplateExcel/Template_KeHoachChiPhiDoiVanTai.xlsx
+++ b/SMO/TemplateExcel/Template_KeHoachChiPhiDoiVanTai.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D2S Project Github\BPS_SKYPEC\SMO\TemplateExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F247C063-5402-4909-BCEF-E61E73F8FE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8563EE7C-E248-4239-8A17-C97F0CCB363A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dòng tiền chi khác của dự án" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,21 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Dòng tiền chi khác của dự án'!$A$6:$F$14</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -30,9 +41,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
-    <t>KẾ HOẠCH NGÂN SÁCH DOANH THU KINH DOANH</t>
-  </si>
-  <si>
     <t>Người lập:</t>
   </si>
   <si>
@@ -73,6 +81,9 @@
   </si>
   <si>
     <t>VTMT</t>
+  </si>
+  <si>
+    <t>KẾ HOẠCH CHI PHÍ ĐỘI VẬN TẢI</t>
   </si>
 </sst>
 </file>
@@ -245,6 +256,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -262,18 +285,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -294,9 +305,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -334,7 +345,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -440,7 +451,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -582,7 +593,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -593,144 +604,137 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:H3"/>
+      <pane xSplit="2" ySplit="8" topLeftCell="C9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="14" customWidth="1"/>
-    <col min="2" max="2" width="48.5546875" style="14" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.88671875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="14.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="48.5546875" style="7" customWidth="1"/>
+    <col min="3" max="13" width="15.77734375" style="1" customWidth="1"/>
     <col min="14" max="14" width="31.6640625" style="1" customWidth="1"/>
     <col min="15" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="15"/>
+      <c r="A1" s="8"/>
     </row>
     <row r="2" spans="1:14" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="12" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
         <v>1</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:14" s="2" customFormat="1" ht="23.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" s="2" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" s="2" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="9" t="s">
+      <c r="E8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="N7" s="7"/>
-    </row>
-    <row r="8" spans="1:14" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="J8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C9" s="3"/>
